--- a/Appendix-B/Sample data/p11.xlsx
+++ b/Appendix-B/Sample data/p11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e836c76a701411/WS 24-25/Participants data/Individual dataset/Individual dataset - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e836c76a701411/WS 24-25/Appendix/Appendix-B/Sample data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{854F7982-7ED1-461A-B3BC-E0D41FCB3597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B520E94-D320-463D-A404-A5C0A08B8C21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C239A7-6C92-4B8B-81B5-FC31F35FA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BDF8E59-F8D5-4505-90B1-63090698E158}"/>
   </bookViews>
@@ -36,23 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
-  <si>
-    <t>[NULL]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>2023-04-13-13.02.31.000000</t>
   </si>
   <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
     <t>TRANSAKTIONSDATUM</t>
   </si>
   <si>
     <t>ARTIKELCODE</t>
   </si>
   <si>
-    <t>ARTIKELNUMMER</t>
-  </si>
-  <si>
     <t>ARTIKELBESCHREIBUNG</t>
   </si>
   <si>
@@ -62,10 +59,7 @@
     <t>INCENTIVIERTER_UMSATZ</t>
   </si>
   <si>
-    <t>SKU_DISCOUNTABLE_VALUE</t>
-  </si>
-  <si>
-    <t>STEUERSATZ</t>
+    <t>EDEKA Nordbayern-Sachsen-Thüringen</t>
   </si>
   <si>
     <t>2023-05-30-19.01.32.000000</t>
@@ -77,16 +71,10 @@
     <t>Sahne/Quark</t>
   </si>
   <si>
-    <t>0,19</t>
-  </si>
-  <si>
     <t>2023-05-30-18.56.47.000000</t>
   </si>
   <si>
     <t>G&amp;G SANDW.TOAST W.</t>
-  </si>
-  <si>
-    <t>0,07</t>
   </si>
   <si>
     <t>2023-04-15-15.54.17.000000</t>
@@ -486,308 +474,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2AD68E-75BF-484D-BFB5-F3C1769B4D0E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" activeCellId="2" sqref="B1 E1 I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4311596435951</v>
       </c>
       <c r="C2" s="1">
         <v>4311596435951</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>162</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4311501772560</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>4311501772560</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>149</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3083681155303</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>3083681155303</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>109</v>
       </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <v>8425779000013</v>
       </c>
-      <c r="C5" s="1">
-        <v>4260120060643</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>85</v>
       </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4311501493199</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>4311501493199</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>259</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4042258834583</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>4042258834583</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>399</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4311501741030</v>
       </c>
       <c r="C8" s="1">
         <v>4311501741030</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>299</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4311596640416</v>
       </c>
       <c r="C9" s="1">
         <v>4311596640416</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>139</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4311501688632</v>
       </c>
       <c r="C10" s="1">
         <v>4311501688632</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>258</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4311501687222</v>
       </c>
       <c r="C11" s="1">
         <v>4311501687222</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>189</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
